--- a/Elicpse/123/src/main/java/Excel_Data/Excelsheet/Ex.xlsx
+++ b/Elicpse/123/src/main/java/Excel_Data/Excelsheet/Ex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b186a8f0e52690de/Pictures/Auto/Forstu_Automation/Elicpse/123/src/main/java/Excel_Data/Excelsheet/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="243">
   <si>
     <t>Login</t>
   </si>
@@ -1227,167 +1227,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="101.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="30.81640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.36328125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.453125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="17.453125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="102.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.7265625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="27.453125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="22.36328125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="17" style="2" customWidth="1"/>
-    <col min="29" max="29" width="18.54296875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="18.7265625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="19.7265625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="23.08984375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="101.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="43.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="43.90625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.54296875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="101.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="43.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="43.90625" style="2" customWidth="1"/>
-    <col min="53" max="53" width="15.36328125" style="2" customWidth="1"/>
-    <col min="54" max="54" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.90625" style="2" customWidth="1"/>
-    <col min="56" max="56" width="11.7265625" style="2" customWidth="1"/>
-    <col min="57" max="57" width="36.26953125" style="2" customWidth="1"/>
-    <col min="58" max="58" width="16.453125" style="2" customWidth="1"/>
-    <col min="59" max="59" width="11.453125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="14.08984375" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11.90625" style="2" customWidth="1"/>
-    <col min="62" max="62" width="12.26953125" style="2" customWidth="1"/>
-    <col min="63" max="63" width="9.54296875" style="2" customWidth="1"/>
-    <col min="64" max="64" width="27.1796875" style="2" customWidth="1"/>
-    <col min="65" max="65" width="17.7265625" style="2" customWidth="1"/>
-    <col min="66" max="66" width="15" style="2" customWidth="1"/>
-    <col min="67" max="67" width="15.36328125" style="2" customWidth="1"/>
-    <col min="68" max="68" width="16" style="2" customWidth="1"/>
-    <col min="69" max="69" width="18" style="2" customWidth="1"/>
-    <col min="70" max="70" width="14.1796875" style="2" customWidth="1"/>
-    <col min="71" max="71" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="101.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.90625" style="2" customWidth="1"/>
-    <col min="81" max="81" width="14.08984375" style="2" customWidth="1"/>
-    <col min="82" max="82" width="29.36328125" style="2" customWidth="1"/>
-    <col min="83" max="83" width="19.453125" style="2" customWidth="1"/>
-    <col min="84" max="84" width="41.6328125" style="2" customWidth="1"/>
-    <col min="85" max="85" width="44.54296875" style="2" customWidth="1"/>
-    <col min="86" max="86" width="42" style="2" customWidth="1"/>
-    <col min="87" max="87" width="14" style="2" customWidth="1"/>
-    <col min="88" max="88" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="101.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="43.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="93" max="95" width="20.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="102.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="28" style="2" customWidth="1"/>
-    <col min="100" max="100" width="30.08984375" style="2" customWidth="1"/>
-    <col min="101" max="101" width="19.26953125" style="2" customWidth="1"/>
-    <col min="102" max="102" width="22" style="2" customWidth="1"/>
-    <col min="103" max="103" width="23.453125" style="2" customWidth="1"/>
-    <col min="104" max="104" width="27.7265625" style="2" customWidth="1"/>
-    <col min="105" max="105" width="28.54296875" style="2" customWidth="1"/>
-    <col min="106" max="106" width="24.08984375" style="2" customWidth="1"/>
-    <col min="107" max="107" width="72.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="17.81640625" style="2" customWidth="1"/>
-    <col min="109" max="109" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.453125" style="2" customWidth="1"/>
-    <col min="112" max="112" width="16.36328125" style="2" customWidth="1"/>
-    <col min="113" max="113" width="14.6328125" style="2" customWidth="1"/>
-    <col min="114" max="114" width="101.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="46.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="13" style="2" customWidth="1"/>
-    <col min="117" max="117" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="18.453125" style="2" customWidth="1"/>
-    <col min="124" max="124" width="15.6328125" style="2" customWidth="1"/>
-    <col min="125" max="125" width="11" style="2" customWidth="1"/>
-    <col min="126" max="126" width="12.6328125" style="2" customWidth="1"/>
-    <col min="127" max="127" width="49.54296875" style="2" customWidth="1"/>
-    <col min="128" max="128" width="17.54296875" style="2" customWidth="1"/>
-    <col min="129" max="129" width="72.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.453125" style="2" customWidth="1"/>
-    <col min="131" max="131" width="14" style="2" customWidth="1"/>
-    <col min="132" max="132" width="12.453125" style="2" customWidth="1"/>
-    <col min="133" max="133" width="14.90625" style="2" customWidth="1"/>
-    <col min="134" max="134" width="15.1796875" style="2" customWidth="1"/>
-    <col min="135" max="135" width="16.26953125" style="2" customWidth="1"/>
-    <col min="136" max="136" width="102.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10" style="2" customWidth="1"/>
-    <col min="142" max="142" width="8.7265625" style="2"/>
-    <col min="143" max="143" width="67.7265625" style="2" customWidth="1"/>
-    <col min="144" max="144" width="44.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14" style="2" customWidth="1"/>
-    <col min="146" max="146" width="19.7265625" style="2" customWidth="1"/>
-    <col min="147" max="147" width="15.7265625" style="2" customWidth="1"/>
-    <col min="148" max="148" width="14.81640625" style="2" customWidth="1"/>
-    <col min="149" max="149" width="21.6328125" style="2" customWidth="1"/>
-    <col min="150" max="150" width="14.08984375" style="2" customWidth="1"/>
-    <col min="151" max="151" width="13.7265625" style="2" customWidth="1"/>
-    <col min="152" max="152" width="18.7265625" style="2" customWidth="1"/>
-    <col min="153" max="153" width="14.36328125" style="2" customWidth="1"/>
-    <col min="154" max="154" width="19.26953125" style="2" customWidth="1"/>
-    <col min="155" max="155" width="19.90625" style="2" customWidth="1"/>
-    <col min="156" max="156" width="24.6328125" style="2" customWidth="1"/>
-    <col min="157" max="157" width="11.7265625" style="2" customWidth="1"/>
-    <col min="158" max="158" width="14.26953125" style="2" customWidth="1"/>
-    <col min="159" max="159" width="102.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="45.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="165" max="166" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="168" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="13" width="29.36328125"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.7265625"/>
+    <col min="3" max="3" customWidth="true" style="2" width="26.6328125"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="12.1796875"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="10.6328125"/>
+    <col min="12" max="12" customWidth="true" style="2" width="22.1796875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="13.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="101.36328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="44.0"/>
+    <col min="16" max="16" customWidth="true" style="2" width="23.81640625"/>
+    <col min="17" max="17" customWidth="true" style="2" width="30.81640625"/>
+    <col min="18" max="18" customWidth="true" style="2" width="26.36328125"/>
+    <col min="19" max="19" customWidth="true" style="2" width="16.81640625"/>
+    <col min="20" max="20" customWidth="true" style="2" width="14.7265625"/>
+    <col min="21" max="21" customWidth="true" style="2" width="16.453125"/>
+    <col min="22" max="22" customWidth="true" style="2" width="17.453125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="102.6328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="44.1796875"/>
+    <col min="25" max="25" customWidth="true" style="2" width="29.7265625"/>
+    <col min="26" max="26" customWidth="true" style="2" width="27.453125"/>
+    <col min="27" max="27" customWidth="true" style="2" width="22.36328125"/>
+    <col min="28" max="28" customWidth="true" style="2" width="17.0"/>
+    <col min="29" max="29" customWidth="true" style="2" width="18.54296875"/>
+    <col min="30" max="30" customWidth="true" style="2" width="18.7265625"/>
+    <col min="31" max="31" customWidth="true" style="2" width="19.7265625"/>
+    <col min="32" max="32" customWidth="true" style="2" width="23.08984375"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="9.7265625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="101.1796875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="43.90625"/>
+    <col min="36" max="38" customWidth="true" style="2" width="43.90625"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="16.54296875"/>
+    <col min="40" max="40" customWidth="true" style="2" width="15.54296875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="8.453125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="11.453125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="14.7265625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="20.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="101.6328125"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="43.90625"/>
+    <col min="50" max="52" customWidth="true" style="2" width="43.90625"/>
+    <col min="53" max="53" customWidth="true" style="2" width="15.36328125"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="16.26953125"/>
+    <col min="55" max="55" customWidth="true" style="2" width="10.90625"/>
+    <col min="56" max="56" customWidth="true" style="2" width="11.7265625"/>
+    <col min="57" max="57" customWidth="true" style="2" width="36.26953125"/>
+    <col min="58" max="58" customWidth="true" style="2" width="16.453125"/>
+    <col min="59" max="59" customWidth="true" style="2" width="11.453125"/>
+    <col min="60" max="60" customWidth="true" style="2" width="14.08984375"/>
+    <col min="61" max="61" customWidth="true" style="2" width="11.90625"/>
+    <col min="62" max="62" customWidth="true" style="2" width="12.26953125"/>
+    <col min="63" max="63" customWidth="true" style="2" width="9.54296875"/>
+    <col min="64" max="64" customWidth="true" style="2" width="27.1796875"/>
+    <col min="65" max="65" customWidth="true" style="2" width="17.7265625"/>
+    <col min="66" max="66" customWidth="true" style="2" width="15.0"/>
+    <col min="67" max="67" customWidth="true" style="2" width="15.36328125"/>
+    <col min="68" max="68" customWidth="true" style="2" width="16.0"/>
+    <col min="69" max="69" customWidth="true" style="2" width="18.0"/>
+    <col min="70" max="70" customWidth="true" style="2" width="14.1796875"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="13.36328125"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="101.6328125"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="44.1796875"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="13.26953125"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="2" width="11.6328125"/>
+    <col min="80" max="80" customWidth="true" style="2" width="14.90625"/>
+    <col min="81" max="81" customWidth="true" style="2" width="14.08984375"/>
+    <col min="82" max="82" customWidth="true" style="2" width="29.36328125"/>
+    <col min="83" max="83" customWidth="true" style="2" width="19.453125"/>
+    <col min="84" max="84" customWidth="true" style="2" width="41.6328125"/>
+    <col min="85" max="85" customWidth="true" style="2" width="44.54296875"/>
+    <col min="86" max="86" customWidth="true" style="2" width="42.0"/>
+    <col min="87" max="87" customWidth="true" style="2" width="14.0"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="101.36328125"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="43.81640625"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="16.26953125"/>
+    <col min="93" max="95" bestFit="true" customWidth="true" style="2" width="20.26953125"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="2" width="7.90625"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="102.6328125"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="44.1796875"/>
+    <col min="99" max="99" customWidth="true" style="2" width="28.0"/>
+    <col min="100" max="100" customWidth="true" style="2" width="30.08984375"/>
+    <col min="101" max="101" customWidth="true" style="2" width="19.26953125"/>
+    <col min="102" max="102" customWidth="true" style="2" width="22.0"/>
+    <col min="103" max="103" customWidth="true" style="2" width="23.453125"/>
+    <col min="104" max="104" customWidth="true" style="2" width="27.7265625"/>
+    <col min="105" max="105" customWidth="true" style="2" width="28.54296875"/>
+    <col min="106" max="106" customWidth="true" style="2" width="24.08984375"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="72.81640625"/>
+    <col min="108" max="108" customWidth="true" style="2" width="17.81640625"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="11.453125"/>
+    <col min="111" max="111" customWidth="true" style="2" width="15.453125"/>
+    <col min="112" max="112" customWidth="true" style="2" width="16.36328125"/>
+    <col min="113" max="113" customWidth="true" style="2" width="14.6328125"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="101.1796875"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="46.54296875"/>
+    <col min="116" max="116" customWidth="true" style="2" width="13.0"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" style="2" width="13.453125"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="2" width="10.6328125"/>
+    <col min="119" max="119" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" style="2" width="12.6328125"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="123" max="123" customWidth="true" style="2" width="18.453125"/>
+    <col min="124" max="124" customWidth="true" style="2" width="15.6328125"/>
+    <col min="125" max="125" customWidth="true" style="2" width="11.0"/>
+    <col min="126" max="126" customWidth="true" style="2" width="12.6328125"/>
+    <col min="127" max="127" customWidth="true" style="2" width="49.54296875"/>
+    <col min="128" max="128" customWidth="true" style="2" width="17.54296875"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="2" width="72.81640625"/>
+    <col min="130" max="130" customWidth="true" style="2" width="13.453125"/>
+    <col min="131" max="131" customWidth="true" style="2" width="14.0"/>
+    <col min="132" max="132" customWidth="true" style="2" width="12.453125"/>
+    <col min="133" max="133" customWidth="true" style="2" width="14.90625"/>
+    <col min="134" max="134" customWidth="true" style="2" width="15.1796875"/>
+    <col min="135" max="135" customWidth="true" style="2" width="16.26953125"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="2" width="102.1796875"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" style="2" width="47.0"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" style="2" width="12.36328125"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" style="2" width="10.7265625"/>
+    <col min="141" max="141" customWidth="true" style="2" width="10.0"/>
+    <col min="142" max="142" style="2" width="8.7265625"/>
+    <col min="143" max="143" customWidth="true" style="2" width="67.7265625"/>
+    <col min="144" max="144" bestFit="true" customWidth="true" style="2" width="44.36328125"/>
+    <col min="145" max="145" customWidth="true" style="2" width="14.0"/>
+    <col min="146" max="146" customWidth="true" style="2" width="19.7265625"/>
+    <col min="147" max="147" customWidth="true" style="2" width="15.7265625"/>
+    <col min="148" max="148" customWidth="true" style="2" width="14.81640625"/>
+    <col min="149" max="149" customWidth="true" style="2" width="21.6328125"/>
+    <col min="150" max="150" customWidth="true" style="2" width="14.08984375"/>
+    <col min="151" max="151" customWidth="true" style="2" width="13.7265625"/>
+    <col min="152" max="152" customWidth="true" style="2" width="18.7265625"/>
+    <col min="153" max="153" customWidth="true" style="2" width="14.36328125"/>
+    <col min="154" max="154" customWidth="true" style="2" width="19.26953125"/>
+    <col min="155" max="155" customWidth="true" style="2" width="19.90625"/>
+    <col min="156" max="156" customWidth="true" style="2" width="24.6328125"/>
+    <col min="157" max="157" customWidth="true" style="2" width="11.7265625"/>
+    <col min="158" max="158" customWidth="true" style="2" width="14.26953125"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" style="2" width="102.6328125"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" style="2" width="45.36328125"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" style="2" width="19.26953125"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" style="2" width="18.26953125"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" style="2" width="16.36328125"/>
+    <col min="164" max="164" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="165" max="166" bestFit="true" customWidth="true" style="2" width="21.36328125"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="168" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2374,10 +2374,10 @@
       <c r="FD2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="FE2" s="2" t="s">
+      <c r="FE2" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="FF2" s="2" t="s">
+      <c r="FF2" t="s" s="2">
         <v>154</v>
       </c>
       <c r="FG2" s="2" t="s">
